--- a/Scen_NCAP_NUC.xlsx
+++ b/Scen_NCAP_NUC.xlsx
@@ -704,15 +704,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -721,6 +712,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,14 +919,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
@@ -939,6 +931,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
